--- a/_site/rooming.xlsx
+++ b/_site/rooming.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CUTTING\Documents\RepTemplates\website_exp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CUTTING\Documents\RepTemplates\website2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E46263C-4E85-43D9-B346-C3A7C8B1C3FE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EADD611B-D142-47E1-858B-A11365772701}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22440" yWindow="1950" windowWidth="20160" windowHeight="9765" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rooming" sheetId="3" r:id="rId1"/>
@@ -22,10 +22,9 @@
   </sheets>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="Filter 1" guid="{2CFEA507-33E1-46D4-A5FB-B6108AC2F0D0}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="Filter 2" guid="{B8B1C4C4-4C72-4BD8-ADEF-1D8F29F2B410}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="Filter 1" guid="{2CFEA507-33E1-46D4-A5FB-B6108AC2F0D0}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -974,10 +973,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1021,12 +1021,6 @@
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1111,7 +1105,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1134,11 +1128,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1229,13 +1234,7 @@
     <xf numFmtId="164" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="20" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="20" fontId="8" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1244,13 +1243,7 @@
     <xf numFmtId="164" fontId="5" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="20" fontId="5" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="20" fontId="8" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1259,22 +1252,16 @@
     <xf numFmtId="164" fontId="6" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="20" fontId="6" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="20" fontId="9" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1283,26 +1270,14 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="20" fontId="5" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="20" fontId="8" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1310,13 +1285,7 @@
     <xf numFmtId="164" fontId="5" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="20" fontId="5" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="20" fontId="8" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1325,13 +1294,7 @@
     <xf numFmtId="164" fontId="5" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="20" fontId="5" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="20" fontId="8" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1346,6 +1309,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="165" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -14692,16 +14662,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E40495BE-AC48-457A-8290-517E99EEAEFD}">
   <dimension ref="A1:H90"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="63" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" style="63" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -14724,7 +14694,7 @@
       <c r="F1" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="61" t="s">
         <v>224</v>
       </c>
       <c r="H1" s="11" t="s">
@@ -14744,13 +14714,13 @@
       <c r="D2" s="33">
         <v>43601</v>
       </c>
-      <c r="E2" s="34">
+      <c r="E2" s="62">
         <v>0.26041666666666669</v>
       </c>
-      <c r="F2" s="35" t="s">
+      <c r="F2" s="34" t="s">
         <v>225</v>
       </c>
-      <c r="G2" s="36">
+      <c r="G2" s="62">
         <v>0.1875</v>
       </c>
       <c r="H2" s="16" t="s">
@@ -14770,13 +14740,13 @@
       <c r="D3" s="33">
         <v>43601</v>
       </c>
-      <c r="E3" s="34">
+      <c r="E3" s="62">
         <v>0.26041666666666669</v>
       </c>
-      <c r="F3" s="35" t="s">
+      <c r="F3" s="34" t="s">
         <v>225</v>
       </c>
-      <c r="G3" s="36">
+      <c r="G3" s="62">
         <v>0.1875</v>
       </c>
       <c r="H3" s="16" t="s">
@@ -14796,13 +14766,13 @@
       <c r="D4" s="33">
         <v>43601</v>
       </c>
-      <c r="E4" s="34">
+      <c r="E4" s="62">
         <v>0.26041666666666669</v>
       </c>
-      <c r="F4" s="35" t="s">
+      <c r="F4" s="34" t="s">
         <v>225</v>
       </c>
-      <c r="G4" s="36">
+      <c r="G4" s="62">
         <v>0.1875</v>
       </c>
       <c r="H4" s="16" t="s">
@@ -14810,25 +14780,25 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="D5" s="38">
-        <v>43601</v>
-      </c>
-      <c r="E5" s="39">
+      <c r="D5" s="36">
+        <v>43601</v>
+      </c>
+      <c r="E5" s="62">
         <v>0.30902777777777779</v>
       </c>
-      <c r="F5" s="40" t="s">
+      <c r="F5" s="37" t="s">
         <v>227</v>
       </c>
-      <c r="G5" s="41">
+      <c r="G5" s="62">
         <v>0.20833333333333334</v>
       </c>
       <c r="H5" s="16" t="s">
@@ -14836,25 +14806,25 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="38">
-        <v>43601</v>
-      </c>
-      <c r="E6" s="39">
+      <c r="D6" s="36">
+        <v>43601</v>
+      </c>
+      <c r="E6" s="62">
         <v>0.30902777777777779</v>
       </c>
-      <c r="F6" s="40" t="s">
+      <c r="F6" s="37" t="s">
         <v>229</v>
       </c>
-      <c r="G6" s="41">
+      <c r="G6" s="62">
         <v>0.20833333333333334</v>
       </c>
       <c r="H6" s="16" t="s">
@@ -14862,25 +14832,25 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="38">
-        <v>43601</v>
-      </c>
-      <c r="E7" s="39">
+      <c r="D7" s="36">
+        <v>43601</v>
+      </c>
+      <c r="E7" s="62">
         <v>0.30902777777777779</v>
       </c>
-      <c r="F7" s="40" t="s">
+      <c r="F7" s="37" t="s">
         <v>229</v>
       </c>
-      <c r="G7" s="41">
+      <c r="G7" s="62">
         <v>0.20833333333333334</v>
       </c>
       <c r="H7" s="16" t="s">
@@ -14888,25 +14858,25 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="43">
-        <v>43601</v>
-      </c>
-      <c r="E8" s="44">
+      <c r="D8" s="39">
+        <v>43601</v>
+      </c>
+      <c r="E8" s="62">
         <v>0.30902777777777779</v>
       </c>
-      <c r="F8" s="45" t="s">
+      <c r="F8" s="40" t="s">
         <v>229</v>
       </c>
-      <c r="G8" s="41">
+      <c r="G8" s="62">
         <v>0.20833333333333334</v>
       </c>
       <c r="H8" s="16" t="s">
@@ -14914,25 +14884,25 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="41" t="s">
         <v>218</v>
       </c>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="41" t="s">
         <v>219</v>
       </c>
-      <c r="C9" s="46" t="s">
+      <c r="C9" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="47">
-        <v>43601</v>
-      </c>
-      <c r="E9" s="48">
+      <c r="D9" s="42">
+        <v>43601</v>
+      </c>
+      <c r="E9" s="62">
         <v>0.30902777777777779</v>
       </c>
-      <c r="F9" s="49" t="s">
+      <c r="F9" s="43" t="s">
         <v>229</v>
       </c>
-      <c r="G9" s="41">
+      <c r="G9" s="62">
         <v>0.20833333333333334</v>
       </c>
       <c r="H9" s="16" t="s">
@@ -14940,25 +14910,25 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="38">
-        <v>43601</v>
-      </c>
-      <c r="E10" s="39">
+      <c r="D10" s="36">
+        <v>43601</v>
+      </c>
+      <c r="E10" s="62">
         <v>0.30902777777777779</v>
       </c>
-      <c r="F10" s="40" t="s">
+      <c r="F10" s="37" t="s">
         <v>230</v>
       </c>
-      <c r="G10" s="41">
+      <c r="G10" s="62">
         <v>0.20833333333333334</v>
       </c>
       <c r="H10" s="16" t="s">
@@ -14966,25 +14936,25 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="37" t="s">
+      <c r="C11" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="38">
-        <v>43601</v>
-      </c>
-      <c r="E11" s="39">
+      <c r="D11" s="36">
+        <v>43601</v>
+      </c>
+      <c r="E11" s="62">
         <v>0.30902777777777779</v>
       </c>
-      <c r="F11" s="40" t="s">
+      <c r="F11" s="37" t="s">
         <v>230</v>
       </c>
-      <c r="G11" s="41">
+      <c r="G11" s="62">
         <v>0.20833333333333334</v>
       </c>
       <c r="H11" s="16" t="s">
@@ -14992,25 +14962,25 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="35" t="s">
         <v>199</v>
       </c>
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="35" t="s">
         <v>200</v>
       </c>
-      <c r="C12" s="37" t="s">
+      <c r="C12" s="35" t="s">
         <v>201</v>
       </c>
-      <c r="D12" s="38">
-        <v>43601</v>
-      </c>
-      <c r="E12" s="39">
+      <c r="D12" s="36">
+        <v>43601</v>
+      </c>
+      <c r="E12" s="62">
         <v>0.30902777777777779</v>
       </c>
-      <c r="F12" s="40" t="s">
+      <c r="F12" s="37" t="s">
         <v>230</v>
       </c>
-      <c r="G12" s="41">
+      <c r="G12" s="62">
         <v>0.20833333333333334</v>
       </c>
       <c r="H12" s="16" t="s">
@@ -15018,25 +14988,25 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="37" t="s">
+      <c r="C13" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="38">
-        <v>43601</v>
-      </c>
-      <c r="E13" s="39">
+      <c r="D13" s="36">
+        <v>43601</v>
+      </c>
+      <c r="E13" s="62">
         <v>0.30902777777777779</v>
       </c>
-      <c r="F13" s="40" t="s">
+      <c r="F13" s="37" t="s">
         <v>231</v>
       </c>
-      <c r="G13" s="41">
+      <c r="G13" s="62">
         <v>0.20833333333333334</v>
       </c>
       <c r="H13" s="16" t="s">
@@ -15044,25 +15014,25 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="B14" s="42" t="s">
+      <c r="B14" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="C14" s="42" t="s">
+      <c r="C14" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="43">
-        <v>43601</v>
-      </c>
-      <c r="E14" s="44">
+      <c r="D14" s="39">
+        <v>43601</v>
+      </c>
+      <c r="E14" s="62">
         <v>0.30902777777777779</v>
       </c>
-      <c r="F14" s="45" t="s">
+      <c r="F14" s="40" t="s">
         <v>231</v>
       </c>
-      <c r="G14" s="41">
+      <c r="G14" s="62">
         <v>0.20833333333333334</v>
       </c>
       <c r="H14" s="16" t="s">
@@ -15070,25 +15040,25 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="38">
-        <v>43601</v>
-      </c>
-      <c r="E15" s="39">
+      <c r="D15" s="36">
+        <v>43601</v>
+      </c>
+      <c r="E15" s="62">
         <v>0.30902777777777779</v>
       </c>
-      <c r="F15" s="40" t="s">
+      <c r="F15" s="37" t="s">
         <v>231</v>
       </c>
-      <c r="G15" s="41">
+      <c r="G15" s="62">
         <v>0.20833333333333334</v>
       </c>
       <c r="H15" s="16" t="s">
@@ -15096,25 +15066,25 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A16" s="37" t="s">
+      <c r="A16" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="C16" s="37" t="s">
+      <c r="C16" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="38">
-        <v>43601</v>
-      </c>
-      <c r="E16" s="39">
+      <c r="D16" s="36">
+        <v>43601</v>
+      </c>
+      <c r="E16" s="62">
         <v>0.30902777777777779</v>
       </c>
-      <c r="F16" s="40" t="s">
+      <c r="F16" s="37" t="s">
         <v>231</v>
       </c>
-      <c r="G16" s="41">
+      <c r="G16" s="62">
         <v>0.20833333333333334</v>
       </c>
       <c r="H16" s="16" t="s">
@@ -15122,25 +15092,25 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A17" s="37" t="s">
+      <c r="A17" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="37" t="s">
+      <c r="C17" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="38">
-        <v>43601</v>
-      </c>
-      <c r="E17" s="39">
+      <c r="D17" s="36">
+        <v>43601</v>
+      </c>
+      <c r="E17" s="62">
         <v>0.32291666666666669</v>
       </c>
-      <c r="F17" s="40" t="s">
+      <c r="F17" s="37" t="s">
         <v>232</v>
       </c>
-      <c r="G17" s="41">
+      <c r="G17" s="62">
         <v>0.20833333333333334</v>
       </c>
       <c r="H17" s="16" t="s">
@@ -15148,25 +15118,25 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A18" s="37" t="s">
+      <c r="A18" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="37" t="s">
+      <c r="C18" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="38">
-        <v>43601</v>
-      </c>
-      <c r="E18" s="39">
+      <c r="D18" s="36">
+        <v>43601</v>
+      </c>
+      <c r="E18" s="62">
         <v>0.32291666666666669</v>
       </c>
-      <c r="F18" s="40" t="s">
+      <c r="F18" s="37" t="s">
         <v>232</v>
       </c>
-      <c r="G18" s="41">
+      <c r="G18" s="62">
         <v>0.20833333333333334</v>
       </c>
       <c r="H18" s="16" t="s">
@@ -15183,40 +15153,42 @@
       <c r="C19" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="D19" s="50">
-        <v>43601</v>
-      </c>
-      <c r="E19" s="26">
+      <c r="D19" s="44">
+        <v>43601</v>
+      </c>
+      <c r="E19" s="62">
         <v>0.3576388888888889</v>
       </c>
-      <c r="F19" s="51" t="s">
+      <c r="F19" s="45" t="s">
         <v>233</v>
       </c>
-      <c r="G19" s="52"/>
+      <c r="G19" s="62">
+        <v>0.20833333333333334</v>
+      </c>
       <c r="H19" s="16" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A20" s="53" t="s">
+      <c r="A20" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="53" t="s">
+      <c r="B20" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="53" t="s">
+      <c r="C20" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="54">
-        <v>43601</v>
-      </c>
-      <c r="E20" s="55">
+      <c r="D20" s="47">
+        <v>43601</v>
+      </c>
+      <c r="E20" s="62">
         <v>0.43402777777777779</v>
       </c>
-      <c r="F20" s="56" t="s">
+      <c r="F20" s="48" t="s">
         <v>235</v>
       </c>
-      <c r="G20" s="57">
+      <c r="G20" s="62">
         <v>0.33333333333333331</v>
       </c>
       <c r="H20" s="16" t="s">
@@ -15224,25 +15196,25 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A21" s="53" t="s">
+      <c r="A21" s="46" t="s">
         <v>181</v>
       </c>
-      <c r="B21" s="53" t="s">
+      <c r="B21" s="46" t="s">
         <v>182</v>
       </c>
-      <c r="C21" s="53" t="s">
+      <c r="C21" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="54">
-        <v>43601</v>
-      </c>
-      <c r="E21" s="55">
+      <c r="D21" s="47">
+        <v>43601</v>
+      </c>
+      <c r="E21" s="62">
         <v>0.43402777777777779</v>
       </c>
-      <c r="F21" s="56" t="s">
+      <c r="F21" s="48" t="s">
         <v>235</v>
       </c>
-      <c r="G21" s="57">
+      <c r="G21" s="62">
         <v>0.33333333333333331</v>
       </c>
       <c r="H21" s="16" t="s">
@@ -15250,25 +15222,25 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A22" s="53" t="s">
+      <c r="A22" s="46" t="s">
         <v>151</v>
       </c>
-      <c r="B22" s="53" t="s">
+      <c r="B22" s="46" t="s">
         <v>152</v>
       </c>
-      <c r="C22" s="53" t="s">
+      <c r="C22" s="46" t="s">
         <v>153</v>
       </c>
-      <c r="D22" s="54">
-        <v>43601</v>
-      </c>
-      <c r="E22" s="55">
+      <c r="D22" s="47">
+        <v>43601</v>
+      </c>
+      <c r="E22" s="62">
         <v>0.4375</v>
       </c>
-      <c r="F22" s="56" t="s">
+      <c r="F22" s="48" t="s">
         <v>237</v>
       </c>
-      <c r="G22" s="57">
+      <c r="G22" s="62">
         <v>0.33333333333333331</v>
       </c>
       <c r="H22" s="16" t="s">
@@ -15276,25 +15248,25 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A23" s="53" t="s">
+      <c r="A23" s="46" t="s">
         <v>197</v>
       </c>
-      <c r="B23" s="53" t="s">
+      <c r="B23" s="46" t="s">
         <v>198</v>
       </c>
-      <c r="C23" s="53" t="s">
+      <c r="C23" s="46" t="s">
         <v>153</v>
       </c>
-      <c r="D23" s="54">
-        <v>43601</v>
-      </c>
-      <c r="E23" s="55">
+      <c r="D23" s="47">
+        <v>43601</v>
+      </c>
+      <c r="E23" s="62">
         <v>0.4375</v>
       </c>
-      <c r="F23" s="56" t="s">
+      <c r="F23" s="48" t="s">
         <v>237</v>
       </c>
-      <c r="G23" s="57">
+      <c r="G23" s="62">
         <v>0.33333333333333331</v>
       </c>
       <c r="H23" s="16" t="s">
@@ -15302,25 +15274,25 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A24" s="53" t="s">
+      <c r="A24" s="46" t="s">
         <v>177</v>
       </c>
-      <c r="B24" s="53" t="s">
+      <c r="B24" s="46" t="s">
         <v>178</v>
       </c>
-      <c r="C24" s="53" t="s">
+      <c r="C24" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="D24" s="54">
-        <v>43601</v>
-      </c>
-      <c r="E24" s="55">
+      <c r="D24" s="47">
+        <v>43601</v>
+      </c>
+      <c r="E24" s="62">
         <v>0.4375</v>
       </c>
-      <c r="F24" s="56" t="s">
+      <c r="F24" s="48" t="s">
         <v>238</v>
       </c>
-      <c r="G24" s="57">
+      <c r="G24" s="62">
         <v>0.33333333333333331</v>
       </c>
       <c r="H24" s="16" t="s">
@@ -15328,25 +15300,25 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A25" s="53" t="s">
+      <c r="A25" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="B25" s="53" t="s">
+      <c r="B25" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="C25" s="53" t="s">
+      <c r="C25" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="54">
-        <v>43601</v>
-      </c>
-      <c r="E25" s="55">
+      <c r="D25" s="47">
+        <v>43601</v>
+      </c>
+      <c r="E25" s="62">
         <v>0.44097222222222221</v>
       </c>
-      <c r="F25" s="56" t="s">
+      <c r="F25" s="48" t="s">
         <v>239</v>
       </c>
-      <c r="G25" s="57">
+      <c r="G25" s="62">
         <v>0.33333333333333331</v>
       </c>
       <c r="H25" s="16" t="s">
@@ -15354,25 +15326,25 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A26" s="53" t="s">
+      <c r="A26" s="46" t="s">
         <v>172</v>
       </c>
-      <c r="B26" s="53" t="s">
+      <c r="B26" s="46" t="s">
         <v>174</v>
       </c>
-      <c r="C26" s="53" t="s">
+      <c r="C26" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="D26" s="54">
-        <v>43601</v>
-      </c>
-      <c r="E26" s="58">
+      <c r="D26" s="47">
+        <v>43601</v>
+      </c>
+      <c r="E26" s="62">
         <v>10.55</v>
       </c>
-      <c r="F26" s="56" t="s">
+      <c r="F26" s="48" t="s">
         <v>239</v>
       </c>
-      <c r="G26" s="57">
+      <c r="G26" s="62">
         <v>0.33333333333333331</v>
       </c>
       <c r="H26" s="16" t="s">
@@ -15380,25 +15352,25 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A27" s="53" t="s">
+      <c r="A27" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="B27" s="53" t="s">
+      <c r="B27" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="C27" s="53" t="s">
+      <c r="C27" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="D27" s="54">
-        <v>43601</v>
-      </c>
-      <c r="E27" s="55">
+      <c r="D27" s="47">
+        <v>43601</v>
+      </c>
+      <c r="E27" s="62">
         <v>0.4548611111111111</v>
       </c>
-      <c r="F27" s="56" t="s">
+      <c r="F27" s="48" t="s">
         <v>239</v>
       </c>
-      <c r="G27" s="57">
+      <c r="G27" s="62">
         <v>0.33333333333333331</v>
       </c>
       <c r="H27" s="16" t="s">
@@ -15406,25 +15378,25 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A28" s="53" t="s">
+      <c r="A28" s="46" t="s">
         <v>129</v>
       </c>
-      <c r="B28" s="53" t="s">
+      <c r="B28" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="C28" s="53" t="s">
+      <c r="C28" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="D28" s="54">
-        <v>43601</v>
-      </c>
-      <c r="E28" s="55">
+      <c r="D28" s="47">
+        <v>43601</v>
+      </c>
+      <c r="E28" s="62">
         <v>0.4548611111111111</v>
       </c>
-      <c r="F28" s="56" t="s">
+      <c r="F28" s="48" t="s">
         <v>239</v>
       </c>
-      <c r="G28" s="57">
+      <c r="G28" s="62">
         <v>0.33333333333333331</v>
       </c>
       <c r="H28" s="16" t="s">
@@ -15432,25 +15404,25 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A29" s="53" t="s">
+      <c r="A29" s="46" t="s">
         <v>155</v>
       </c>
-      <c r="B29" s="53" t="s">
+      <c r="B29" s="46" t="s">
         <v>158</v>
       </c>
-      <c r="C29" s="53" t="s">
+      <c r="C29" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="D29" s="54">
-        <v>43601</v>
-      </c>
-      <c r="E29" s="55">
+      <c r="D29" s="47">
+        <v>43601</v>
+      </c>
+      <c r="E29" s="62">
         <v>0.4548611111111111</v>
       </c>
-      <c r="F29" s="56" t="s">
+      <c r="F29" s="48" t="s">
         <v>239</v>
       </c>
-      <c r="G29" s="57">
+      <c r="G29" s="62">
         <v>0.33333333333333331</v>
       </c>
       <c r="H29" s="16" t="s">
@@ -15458,25 +15430,25 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A30" s="53" t="s">
+      <c r="A30" s="46" t="s">
         <v>149</v>
       </c>
-      <c r="B30" s="53" t="s">
+      <c r="B30" s="46" t="s">
         <v>150</v>
       </c>
-      <c r="C30" s="53" t="s">
+      <c r="C30" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="D30" s="54">
-        <v>43601</v>
-      </c>
-      <c r="E30" s="55">
+      <c r="D30" s="47">
+        <v>43601</v>
+      </c>
+      <c r="E30" s="62">
         <v>0.4548611111111111</v>
       </c>
-      <c r="F30" s="56" t="s">
+      <c r="F30" s="48" t="s">
         <v>239</v>
       </c>
-      <c r="G30" s="57">
+      <c r="G30" s="62">
         <v>0.33333333333333331</v>
       </c>
       <c r="H30" s="16" t="s">
@@ -15484,25 +15456,25 @@
       </c>
     </row>
     <row r="31" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A31" s="53" t="s">
+      <c r="A31" s="46" t="s">
         <v>163</v>
       </c>
-      <c r="B31" s="53" t="s">
+      <c r="B31" s="46" t="s">
         <v>165</v>
       </c>
-      <c r="C31" s="53" t="s">
+      <c r="C31" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="D31" s="54">
-        <v>43601</v>
-      </c>
-      <c r="E31" s="55">
+      <c r="D31" s="47">
+        <v>43601</v>
+      </c>
+      <c r="E31" s="62">
         <v>0.4548611111111111</v>
       </c>
-      <c r="F31" s="56" t="s">
+      <c r="F31" s="48" t="s">
         <v>239</v>
       </c>
-      <c r="G31" s="57">
+      <c r="G31" s="62">
         <v>0.33333333333333331</v>
       </c>
       <c r="H31" s="16" t="s">
@@ -15510,25 +15482,25 @@
       </c>
     </row>
     <row r="32" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A32" s="53" t="s">
+      <c r="A32" s="46" t="s">
         <v>172</v>
       </c>
-      <c r="B32" s="53" t="s">
+      <c r="B32" s="46" t="s">
         <v>173</v>
       </c>
-      <c r="C32" s="53" t="s">
+      <c r="C32" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="D32" s="54">
-        <v>43601</v>
-      </c>
-      <c r="E32" s="55">
+      <c r="D32" s="47">
+        <v>43601</v>
+      </c>
+      <c r="E32" s="62">
         <v>0.4548611111111111</v>
       </c>
-      <c r="F32" s="56" t="s">
+      <c r="F32" s="48" t="s">
         <v>239</v>
       </c>
-      <c r="G32" s="57">
+      <c r="G32" s="62">
         <v>0.33333333333333331</v>
       </c>
       <c r="H32" s="16" t="s">
@@ -15536,25 +15508,25 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A33" s="53" t="s">
+      <c r="A33" s="46" t="s">
         <v>175</v>
       </c>
-      <c r="B33" s="53" t="s">
+      <c r="B33" s="46" t="s">
         <v>191</v>
       </c>
-      <c r="C33" s="53" t="s">
+      <c r="C33" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="D33" s="54">
-        <v>43601</v>
-      </c>
-      <c r="E33" s="55">
+      <c r="D33" s="47">
+        <v>43601</v>
+      </c>
+      <c r="E33" s="62">
         <v>0.4548611111111111</v>
       </c>
-      <c r="F33" s="56" t="s">
+      <c r="F33" s="48" t="s">
         <v>239</v>
       </c>
-      <c r="G33" s="57">
+      <c r="G33" s="62">
         <v>0.33333333333333331</v>
       </c>
       <c r="H33" s="16" t="s">
@@ -15562,25 +15534,25 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A34" s="53" t="s">
+      <c r="A34" s="46" t="s">
         <v>175</v>
       </c>
-      <c r="B34" s="53" t="s">
+      <c r="B34" s="46" t="s">
         <v>192</v>
       </c>
-      <c r="C34" s="53" t="s">
+      <c r="C34" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="D34" s="54">
-        <v>43601</v>
-      </c>
-      <c r="E34" s="55">
+      <c r="D34" s="47">
+        <v>43601</v>
+      </c>
+      <c r="E34" s="62">
         <v>0.4548611111111111</v>
       </c>
-      <c r="F34" s="56" t="s">
+      <c r="F34" s="48" t="s">
         <v>239</v>
       </c>
-      <c r="G34" s="57">
+      <c r="G34" s="62">
         <v>0.33333333333333331</v>
       </c>
       <c r="H34" s="16" t="s">
@@ -15588,25 +15560,25 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A35" s="53" t="s">
+      <c r="A35" s="46" t="s">
         <v>194</v>
       </c>
-      <c r="B35" s="53" t="s">
+      <c r="B35" s="46" t="s">
         <v>195</v>
       </c>
-      <c r="C35" s="53" t="s">
+      <c r="C35" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="D35" s="54">
-        <v>43601</v>
-      </c>
-      <c r="E35" s="55">
+      <c r="D35" s="47">
+        <v>43601</v>
+      </c>
+      <c r="E35" s="62">
         <v>0.4548611111111111</v>
       </c>
-      <c r="F35" s="56" t="s">
+      <c r="F35" s="48" t="s">
         <v>239</v>
       </c>
-      <c r="G35" s="57">
+      <c r="G35" s="62">
         <v>0.33333333333333331</v>
       </c>
       <c r="H35" s="16" t="s">
@@ -15614,25 +15586,25 @@
       </c>
     </row>
     <row r="36" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A36" s="53" t="s">
+      <c r="A36" s="46" t="s">
         <v>159</v>
       </c>
-      <c r="B36" s="53" t="s">
+      <c r="B36" s="46" t="s">
         <v>160</v>
       </c>
-      <c r="C36" s="53" t="s">
+      <c r="C36" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="D36" s="54">
-        <v>43601</v>
-      </c>
-      <c r="E36" s="55">
+      <c r="D36" s="47">
+        <v>43601</v>
+      </c>
+      <c r="E36" s="62">
         <v>0.4548611111111111</v>
       </c>
-      <c r="F36" s="56" t="s">
+      <c r="F36" s="48" t="s">
         <v>239</v>
       </c>
-      <c r="G36" s="57">
+      <c r="G36" s="62">
         <v>0.33333333333333331</v>
       </c>
       <c r="H36" s="16" t="s">
@@ -15640,25 +15612,25 @@
       </c>
     </row>
     <row r="37" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A37" s="53" t="s">
+      <c r="A37" s="46" t="s">
         <v>154</v>
       </c>
-      <c r="B37" s="53" t="s">
+      <c r="B37" s="46" t="s">
         <v>156</v>
       </c>
-      <c r="C37" s="53" t="s">
+      <c r="C37" s="46" t="s">
         <v>157</v>
       </c>
-      <c r="D37" s="54">
-        <v>43601</v>
-      </c>
-      <c r="E37" s="55">
+      <c r="D37" s="47">
+        <v>43601</v>
+      </c>
+      <c r="E37" s="62">
         <v>0.4548611111111111</v>
       </c>
-      <c r="F37" s="56" t="s">
+      <c r="F37" s="48" t="s">
         <v>239</v>
       </c>
-      <c r="G37" s="57">
+      <c r="G37" s="62">
         <v>0.33333333333333331</v>
       </c>
       <c r="H37" s="16" t="s">
@@ -15666,25 +15638,25 @@
       </c>
     </row>
     <row r="38" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A38" s="53" t="s">
+      <c r="A38" s="46" t="s">
         <v>108</v>
       </c>
-      <c r="B38" s="53" t="s">
+      <c r="B38" s="46" t="s">
         <v>109</v>
       </c>
-      <c r="C38" s="53" t="s">
+      <c r="C38" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="D38" s="54">
-        <v>43601</v>
-      </c>
-      <c r="E38" s="55">
+      <c r="D38" s="47">
+        <v>43601</v>
+      </c>
+      <c r="E38" s="62">
         <v>0.4548611111111111</v>
       </c>
-      <c r="F38" s="56" t="s">
+      <c r="F38" s="48" t="s">
         <v>239</v>
       </c>
-      <c r="G38" s="57">
+      <c r="G38" s="62">
         <v>0.33333333333333331</v>
       </c>
       <c r="H38" s="16" t="s">
@@ -15692,25 +15664,25 @@
       </c>
     </row>
     <row r="39" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A39" s="53" t="s">
+      <c r="A39" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="B39" s="53" t="s">
+      <c r="B39" s="46" t="s">
         <v>92</v>
       </c>
-      <c r="C39" s="53" t="s">
+      <c r="C39" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="D39" s="54">
-        <v>43601</v>
-      </c>
-      <c r="E39" s="55">
+      <c r="D39" s="47">
+        <v>43601</v>
+      </c>
+      <c r="E39" s="62">
         <v>0.4548611111111111</v>
       </c>
-      <c r="F39" s="56" t="s">
+      <c r="F39" s="48" t="s">
         <v>239</v>
       </c>
-      <c r="G39" s="57">
+      <c r="G39" s="62">
         <v>0.33333333333333331</v>
       </c>
       <c r="H39" s="16" t="s">
@@ -15718,23 +15690,23 @@
       </c>
     </row>
     <row r="40" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A40" s="53" t="s">
+      <c r="A40" s="46" t="s">
         <v>110</v>
       </c>
-      <c r="B40" s="53" t="s">
+      <c r="B40" s="46" t="s">
         <v>111</v>
       </c>
-      <c r="C40" s="53" t="s">
+      <c r="C40" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="D40" s="54">
-        <v>43601</v>
-      </c>
-      <c r="E40" s="55">
+      <c r="D40" s="47">
+        <v>43601</v>
+      </c>
+      <c r="E40" s="62">
         <v>0.4548611111111111</v>
       </c>
-      <c r="F40" s="56"/>
-      <c r="G40" s="57">
+      <c r="F40" s="48"/>
+      <c r="G40" s="62">
         <v>0.33333333333333331</v>
       </c>
       <c r="H40" s="16" t="s">
@@ -15742,23 +15714,23 @@
       </c>
     </row>
     <row r="41" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A41" s="53" t="s">
+      <c r="A41" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="B41" s="53" t="s">
+      <c r="B41" s="46" t="s">
         <v>142</v>
       </c>
-      <c r="C41" s="53" t="s">
+      <c r="C41" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="D41" s="54">
-        <v>43601</v>
-      </c>
-      <c r="E41" s="55">
+      <c r="D41" s="47">
+        <v>43601</v>
+      </c>
+      <c r="E41" s="62">
         <v>0.4548611111111111</v>
       </c>
-      <c r="F41" s="56"/>
-      <c r="G41" s="57">
+      <c r="F41" s="48"/>
+      <c r="G41" s="62">
         <v>0.33333333333333331</v>
       </c>
       <c r="H41" s="16" t="s">
@@ -15766,25 +15738,25 @@
       </c>
     </row>
     <row r="42" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A42" s="59" t="s">
+      <c r="A42" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="B42" s="59" t="s">
+      <c r="B42" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="C42" s="59" t="s">
+      <c r="C42" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="D42" s="60">
-        <v>43601</v>
-      </c>
-      <c r="E42" s="61">
+      <c r="D42" s="50">
+        <v>43601</v>
+      </c>
+      <c r="E42" s="62">
         <v>0.50694444444444442</v>
       </c>
-      <c r="F42" s="62" t="s">
+      <c r="F42" s="51" t="s">
         <v>240</v>
       </c>
-      <c r="G42" s="63">
+      <c r="G42" s="62">
         <v>0.40625</v>
       </c>
       <c r="H42" s="16" t="s">
@@ -15792,25 +15764,25 @@
       </c>
     </row>
     <row r="43" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A43" s="59" t="s">
+      <c r="A43" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="B43" s="59" t="s">
+      <c r="B43" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="C43" s="59" t="s">
+      <c r="C43" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="D43" s="60">
-        <v>43601</v>
-      </c>
-      <c r="E43" s="61">
+      <c r="D43" s="50">
+        <v>43601</v>
+      </c>
+      <c r="E43" s="62">
         <v>0.50694444444444442</v>
       </c>
-      <c r="F43" s="62" t="s">
+      <c r="F43" s="51" t="s">
         <v>241</v>
       </c>
-      <c r="G43" s="63">
+      <c r="G43" s="62">
         <v>0.40625</v>
       </c>
       <c r="H43" s="16" t="s">
@@ -15818,25 +15790,25 @@
       </c>
     </row>
     <row r="44" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A44" s="59" t="s">
+      <c r="A44" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="B44" s="59" t="s">
+      <c r="B44" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="C44" s="59" t="s">
+      <c r="C44" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="D44" s="60">
-        <v>43601</v>
-      </c>
-      <c r="E44" s="61">
+      <c r="D44" s="50">
+        <v>43601</v>
+      </c>
+      <c r="E44" s="62">
         <v>0.50694444444444442</v>
       </c>
-      <c r="F44" s="62" t="s">
+      <c r="F44" s="51" t="s">
         <v>241</v>
       </c>
-      <c r="G44" s="63">
+      <c r="G44" s="62">
         <v>0.40625</v>
       </c>
       <c r="H44" s="16" t="s">
@@ -15844,25 +15816,25 @@
       </c>
     </row>
     <row r="45" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A45" s="59" t="s">
+      <c r="A45" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="B45" s="59" t="s">
+      <c r="B45" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="C45" s="59" t="s">
+      <c r="C45" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="D45" s="60">
-        <v>43601</v>
-      </c>
-      <c r="E45" s="61">
+      <c r="D45" s="50">
+        <v>43601</v>
+      </c>
+      <c r="E45" s="62">
         <v>0.50694444444444442</v>
       </c>
-      <c r="F45" s="62" t="s">
+      <c r="F45" s="51" t="s">
         <v>241</v>
       </c>
-      <c r="G45" s="63">
+      <c r="G45" s="62">
         <v>0.40625</v>
       </c>
       <c r="H45" s="16" t="s">
@@ -15870,25 +15842,25 @@
       </c>
     </row>
     <row r="46" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A46" s="59" t="s">
+      <c r="A46" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="B46" s="59" t="s">
+      <c r="B46" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="C46" s="59" t="s">
+      <c r="C46" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="D46" s="60">
-        <v>43601</v>
-      </c>
-      <c r="E46" s="61">
+      <c r="D46" s="50">
+        <v>43601</v>
+      </c>
+      <c r="E46" s="62">
         <v>0.50694444444444442</v>
       </c>
-      <c r="F46" s="62" t="s">
+      <c r="F46" s="51" t="s">
         <v>241</v>
       </c>
-      <c r="G46" s="63">
+      <c r="G46" s="62">
         <v>0.40625</v>
       </c>
       <c r="H46" s="16" t="s">
@@ -15896,25 +15868,25 @@
       </c>
     </row>
     <row r="47" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A47" s="59" t="s">
+      <c r="A47" s="49" t="s">
         <v>179</v>
       </c>
-      <c r="B47" s="59" t="s">
+      <c r="B47" s="49" t="s">
         <v>180</v>
       </c>
-      <c r="C47" s="59" t="s">
+      <c r="C47" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="D47" s="60">
-        <v>43601</v>
-      </c>
-      <c r="E47" s="61">
+      <c r="D47" s="50">
+        <v>43601</v>
+      </c>
+      <c r="E47" s="62">
         <v>0.50694444444444442</v>
       </c>
-      <c r="F47" s="62" t="s">
+      <c r="F47" s="51" t="s">
         <v>241</v>
       </c>
-      <c r="G47" s="63">
+      <c r="G47" s="62">
         <v>0.40625</v>
       </c>
       <c r="H47" s="16" t="s">
@@ -15922,25 +15894,25 @@
       </c>
     </row>
     <row r="48" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A48" s="59" t="s">
+      <c r="A48" s="49" t="s">
         <v>183</v>
       </c>
-      <c r="B48" s="59" t="s">
+      <c r="B48" s="49" t="s">
         <v>184</v>
       </c>
-      <c r="C48" s="59" t="s">
+      <c r="C48" s="49" t="s">
         <v>185</v>
       </c>
-      <c r="D48" s="60">
-        <v>43601</v>
-      </c>
-      <c r="E48" s="61">
+      <c r="D48" s="50">
+        <v>43601</v>
+      </c>
+      <c r="E48" s="62">
         <v>0.51736111111111116</v>
       </c>
-      <c r="F48" s="62" t="s">
+      <c r="F48" s="51" t="s">
         <v>242</v>
       </c>
-      <c r="G48" s="63">
+      <c r="G48" s="62">
         <v>0.40625</v>
       </c>
       <c r="H48" s="16" t="s">
@@ -15948,25 +15920,25 @@
       </c>
     </row>
     <row r="49" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A49" s="59" t="s">
+      <c r="A49" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="B49" s="59" t="s">
+      <c r="B49" s="49" t="s">
         <v>123</v>
       </c>
-      <c r="C49" s="59" t="s">
+      <c r="C49" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="D49" s="60">
-        <v>43601</v>
-      </c>
-      <c r="E49" s="61">
+      <c r="D49" s="50">
+        <v>43601</v>
+      </c>
+      <c r="E49" s="62">
         <v>0.53125</v>
       </c>
-      <c r="F49" s="62" t="s">
+      <c r="F49" s="51" t="s">
         <v>243</v>
       </c>
-      <c r="G49" s="63">
+      <c r="G49" s="62">
         <v>0.40625</v>
       </c>
       <c r="H49" s="16" t="s">
@@ -15974,25 +15946,25 @@
       </c>
     </row>
     <row r="50" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A50" s="59" t="s">
+      <c r="A50" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="B50" s="59" t="s">
+      <c r="B50" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="C50" s="59" t="s">
+      <c r="C50" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="D50" s="60">
-        <v>43601</v>
-      </c>
-      <c r="E50" s="61">
+      <c r="D50" s="50">
+        <v>43601</v>
+      </c>
+      <c r="E50" s="62">
         <v>0.53125</v>
       </c>
-      <c r="F50" s="62" t="s">
+      <c r="F50" s="51" t="s">
         <v>243</v>
       </c>
-      <c r="G50" s="63">
+      <c r="G50" s="62">
         <v>0.40625</v>
       </c>
       <c r="H50" s="16" t="s">
@@ -16000,23 +15972,23 @@
       </c>
     </row>
     <row r="51" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A51" s="59" t="s">
+      <c r="A51" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="B51" s="59" t="s">
+      <c r="B51" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="C51" s="59" t="s">
+      <c r="C51" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="D51" s="60">
-        <v>43601</v>
-      </c>
-      <c r="E51" s="61">
+      <c r="D51" s="50">
+        <v>43601</v>
+      </c>
+      <c r="E51" s="62">
         <v>0.53125</v>
       </c>
-      <c r="F51" s="62"/>
-      <c r="G51" s="63">
+      <c r="F51" s="51"/>
+      <c r="G51" s="62">
         <v>0.40625</v>
       </c>
       <c r="H51" s="16" t="s">
@@ -16024,25 +15996,25 @@
       </c>
     </row>
     <row r="52" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A52" s="59" t="s">
+      <c r="A52" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="B52" s="59" t="s">
+      <c r="B52" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="C52" s="59" t="s">
+      <c r="C52" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="D52" s="60">
-        <v>43601</v>
-      </c>
-      <c r="E52" s="61">
+      <c r="D52" s="50">
+        <v>43601</v>
+      </c>
+      <c r="E52" s="62">
         <v>0.53125</v>
       </c>
-      <c r="F52" s="62" t="s">
+      <c r="F52" s="51" t="s">
         <v>243</v>
       </c>
-      <c r="G52" s="63">
+      <c r="G52" s="62">
         <v>0.40625</v>
       </c>
       <c r="H52" s="16" t="s">
@@ -16050,25 +16022,25 @@
       </c>
     </row>
     <row r="53" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A53" s="59" t="s">
+      <c r="A53" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="B53" s="59" t="s">
+      <c r="B53" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="C53" s="59" t="s">
+      <c r="C53" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="D53" s="60">
-        <v>43601</v>
-      </c>
-      <c r="E53" s="61">
+      <c r="D53" s="50">
+        <v>43601</v>
+      </c>
+      <c r="E53" s="62">
         <v>0.55208333333333337</v>
       </c>
-      <c r="F53" s="62" t="s">
+      <c r="F53" s="51" t="s">
         <v>244</v>
       </c>
-      <c r="G53" s="63">
+      <c r="G53" s="62">
         <v>0.40625</v>
       </c>
       <c r="H53" s="16" t="s">
@@ -16076,25 +16048,25 @@
       </c>
     </row>
     <row r="54" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A54" s="59" t="s">
+      <c r="A54" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B54" s="59" t="s">
+      <c r="B54" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C54" s="59" t="s">
+      <c r="C54" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="D54" s="60">
-        <v>43601</v>
-      </c>
-      <c r="E54" s="61">
+      <c r="D54" s="50">
+        <v>43601</v>
+      </c>
+      <c r="E54" s="62">
         <v>0.55208333333333337</v>
       </c>
-      <c r="F54" s="62" t="s">
+      <c r="F54" s="51" t="s">
         <v>245</v>
       </c>
-      <c r="G54" s="63">
+      <c r="G54" s="62">
         <v>0.40625</v>
       </c>
       <c r="H54" s="16" t="s">
@@ -16102,25 +16074,25 @@
       </c>
     </row>
     <row r="55" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A55" s="59" t="s">
+      <c r="A55" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="B55" s="59" t="s">
+      <c r="B55" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="C55" s="59" t="s">
+      <c r="C55" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="D55" s="60">
-        <v>43601</v>
-      </c>
-      <c r="E55" s="61">
+      <c r="D55" s="50">
+        <v>43601</v>
+      </c>
+      <c r="E55" s="62">
         <v>0.55208333333333337</v>
       </c>
-      <c r="F55" s="62" t="s">
+      <c r="F55" s="51" t="s">
         <v>245</v>
       </c>
-      <c r="G55" s="63">
+      <c r="G55" s="62">
         <v>0.40625</v>
       </c>
       <c r="H55" s="16" t="s">
@@ -16128,25 +16100,25 @@
       </c>
     </row>
     <row r="56" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A56" s="59" t="s">
+      <c r="A56" s="49" t="s">
         <v>131</v>
       </c>
-      <c r="B56" s="59" t="s">
+      <c r="B56" s="49" t="s">
         <v>132</v>
       </c>
-      <c r="C56" s="59" t="s">
+      <c r="C56" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="D56" s="60">
-        <v>43601</v>
-      </c>
-      <c r="E56" s="61">
+      <c r="D56" s="50">
+        <v>43601</v>
+      </c>
+      <c r="E56" s="62">
         <v>0.55208333333333337</v>
       </c>
-      <c r="F56" s="62" t="s">
+      <c r="F56" s="51" t="s">
         <v>245</v>
       </c>
-      <c r="G56" s="63">
+      <c r="G56" s="62">
         <v>0.40625</v>
       </c>
       <c r="H56" s="16" t="s">
@@ -16163,16 +16135,18 @@
       <c r="C57" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D57" s="50">
-        <v>43601</v>
-      </c>
-      <c r="E57" s="26">
+      <c r="D57" s="44">
+        <v>43601</v>
+      </c>
+      <c r="E57" s="62">
         <v>0.57638888888888884</v>
       </c>
-      <c r="F57" s="51" t="s">
+      <c r="F57" s="45" t="s">
         <v>239</v>
       </c>
-      <c r="G57" s="52"/>
+      <c r="G57" s="62">
+        <v>0.20833333333333334</v>
+      </c>
       <c r="H57" s="16" t="s">
         <v>234</v>
       </c>
@@ -16187,40 +16161,42 @@
       <c r="C58" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D58" s="50">
-        <v>43601</v>
-      </c>
-      <c r="E58" s="26">
+      <c r="D58" s="44">
+        <v>43601</v>
+      </c>
+      <c r="E58" s="62">
         <v>0.60069444444444442</v>
       </c>
-      <c r="F58" s="51" t="s">
+      <c r="F58" s="45" t="s">
         <v>246</v>
       </c>
-      <c r="G58" s="52"/>
+      <c r="G58" s="62">
+        <v>0.20833333333333334</v>
+      </c>
       <c r="H58" s="16" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A59" s="64" t="s">
+      <c r="A59" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="B59" s="64" t="s">
+      <c r="B59" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="C59" s="64" t="s">
+      <c r="C59" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="D59" s="65">
-        <v>43601</v>
-      </c>
-      <c r="E59" s="66">
+      <c r="D59" s="53">
+        <v>43601</v>
+      </c>
+      <c r="E59" s="62">
         <v>0.62152777777777779</v>
       </c>
-      <c r="F59" s="67" t="s">
+      <c r="F59" s="54" t="s">
         <v>247</v>
       </c>
-      <c r="G59" s="68">
+      <c r="G59" s="62">
         <v>0.52083333333333337</v>
       </c>
       <c r="H59" s="16" t="s">
@@ -16228,25 +16204,25 @@
       </c>
     </row>
     <row r="60" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A60" s="64" t="s">
+      <c r="A60" s="52" t="s">
         <v>175</v>
       </c>
-      <c r="B60" s="64" t="s">
+      <c r="B60" s="52" t="s">
         <v>176</v>
       </c>
-      <c r="C60" s="64" t="s">
+      <c r="C60" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="D60" s="65">
-        <v>43601</v>
-      </c>
-      <c r="E60" s="66">
+      <c r="D60" s="53">
+        <v>43601</v>
+      </c>
+      <c r="E60" s="62">
         <v>0.62152777777777779</v>
       </c>
-      <c r="F60" s="67" t="s">
+      <c r="F60" s="54" t="s">
         <v>248</v>
       </c>
-      <c r="G60" s="68">
+      <c r="G60" s="62">
         <v>0.52083333333333337</v>
       </c>
       <c r="H60" s="16" t="s">
@@ -16254,25 +16230,25 @@
       </c>
     </row>
     <row r="61" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A61" s="64" t="s">
+      <c r="A61" s="52" t="s">
         <v>143</v>
       </c>
-      <c r="B61" s="64" t="s">
+      <c r="B61" s="52" t="s">
         <v>144</v>
       </c>
-      <c r="C61" s="64" t="s">
+      <c r="C61" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="D61" s="65">
-        <v>43601</v>
-      </c>
-      <c r="E61" s="66">
+      <c r="D61" s="53">
+        <v>43601</v>
+      </c>
+      <c r="E61" s="62">
         <v>0.62152777777777779</v>
       </c>
-      <c r="F61" s="67" t="s">
+      <c r="F61" s="54" t="s">
         <v>248</v>
       </c>
-      <c r="G61" s="68">
+      <c r="G61" s="62">
         <v>0.52083333333333337</v>
       </c>
       <c r="H61" s="16" t="s">
@@ -16280,25 +16256,25 @@
       </c>
     </row>
     <row r="62" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A62" s="64" t="s">
+      <c r="A62" s="52" t="s">
         <v>163</v>
       </c>
-      <c r="B62" s="64" t="s">
+      <c r="B62" s="52" t="s">
         <v>164</v>
       </c>
-      <c r="C62" s="64" t="s">
+      <c r="C62" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="D62" s="65">
-        <v>43601</v>
-      </c>
-      <c r="E62" s="66">
+      <c r="D62" s="53">
+        <v>43601</v>
+      </c>
+      <c r="E62" s="62">
         <v>0.62152777777777779</v>
       </c>
-      <c r="F62" s="67" t="s">
+      <c r="F62" s="54" t="s">
         <v>248</v>
       </c>
-      <c r="G62" s="68">
+      <c r="G62" s="62">
         <v>0.52083333333333337</v>
       </c>
       <c r="H62" s="16" t="s">
@@ -16306,25 +16282,25 @@
       </c>
     </row>
     <row r="63" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A63" s="64" t="s">
+      <c r="A63" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="B63" s="64" t="s">
+      <c r="B63" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="C63" s="64" t="s">
+      <c r="C63" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="D63" s="65">
-        <v>43601</v>
-      </c>
-      <c r="E63" s="66">
+      <c r="D63" s="53">
+        <v>43601</v>
+      </c>
+      <c r="E63" s="62">
         <v>0.62152777777777779</v>
       </c>
-      <c r="F63" s="67" t="s">
+      <c r="F63" s="54" t="s">
         <v>248</v>
       </c>
-      <c r="G63" s="68">
+      <c r="G63" s="62">
         <v>0.52083333333333337</v>
       </c>
       <c r="H63" s="16" t="s">
@@ -16332,25 +16308,25 @@
       </c>
     </row>
     <row r="64" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A64" s="64" t="s">
+      <c r="A64" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="B64" s="64" t="s">
+      <c r="B64" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="C64" s="64" t="s">
+      <c r="C64" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="D64" s="65">
-        <v>43601</v>
-      </c>
-      <c r="E64" s="66">
+      <c r="D64" s="53">
+        <v>43601</v>
+      </c>
+      <c r="E64" s="62">
         <v>0.62152777777777779</v>
       </c>
-      <c r="F64" s="67" t="s">
+      <c r="F64" s="54" t="s">
         <v>248</v>
       </c>
-      <c r="G64" s="68">
+      <c r="G64" s="62">
         <v>0.52083333333333337</v>
       </c>
       <c r="H64" s="16" t="s">
@@ -16358,25 +16334,25 @@
       </c>
     </row>
     <row r="65" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A65" s="64" t="s">
+      <c r="A65" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="B65" s="64" t="s">
+      <c r="B65" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="C65" s="64" t="s">
+      <c r="C65" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="D65" s="65">
-        <v>43601</v>
-      </c>
-      <c r="E65" s="66">
+      <c r="D65" s="53">
+        <v>43601</v>
+      </c>
+      <c r="E65" s="62">
         <v>0.62152777777777779</v>
       </c>
-      <c r="F65" s="67" t="s">
+      <c r="F65" s="54" t="s">
         <v>248</v>
       </c>
-      <c r="G65" s="68">
+      <c r="G65" s="62">
         <v>0.52083333333333337</v>
       </c>
       <c r="H65" s="16" t="s">
@@ -16384,25 +16360,25 @@
       </c>
     </row>
     <row r="66" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A66" s="64" t="s">
+      <c r="A66" s="52" t="s">
         <v>83</v>
       </c>
-      <c r="B66" s="64" t="s">
+      <c r="B66" s="52" t="s">
         <v>84</v>
       </c>
-      <c r="C66" s="64" t="s">
+      <c r="C66" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="D66" s="65">
-        <v>43601</v>
-      </c>
-      <c r="E66" s="66">
+      <c r="D66" s="53">
+        <v>43601</v>
+      </c>
+      <c r="E66" s="62">
         <v>0.62152777777777779</v>
       </c>
-      <c r="F66" s="67" t="s">
+      <c r="F66" s="54" t="s">
         <v>248</v>
       </c>
-      <c r="G66" s="68">
+      <c r="G66" s="62">
         <v>0.52083333333333337</v>
       </c>
       <c r="H66" s="16" t="s">
@@ -16410,25 +16386,25 @@
       </c>
     </row>
     <row r="67" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A67" s="64" t="s">
+      <c r="A67" s="52" t="s">
         <v>100</v>
       </c>
-      <c r="B67" s="64" t="s">
+      <c r="B67" s="52" t="s">
         <v>101</v>
       </c>
-      <c r="C67" s="64" t="s">
+      <c r="C67" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="D67" s="65">
-        <v>43601</v>
-      </c>
-      <c r="E67" s="66">
+      <c r="D67" s="53">
+        <v>43601</v>
+      </c>
+      <c r="E67" s="62">
         <v>0.62152777777777779</v>
       </c>
-      <c r="F67" s="67" t="s">
+      <c r="F67" s="54" t="s">
         <v>248</v>
       </c>
-      <c r="G67" s="68">
+      <c r="G67" s="62">
         <v>0.52083333333333337</v>
       </c>
       <c r="H67" s="16" t="s">
@@ -16436,25 +16412,25 @@
       </c>
     </row>
     <row r="68" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A68" s="64" t="s">
+      <c r="A68" s="52" t="s">
         <v>116</v>
       </c>
-      <c r="B68" s="64" t="s">
+      <c r="B68" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="C68" s="64" t="s">
+      <c r="C68" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="D68" s="65">
-        <v>43601</v>
-      </c>
-      <c r="E68" s="66">
+      <c r="D68" s="53">
+        <v>43601</v>
+      </c>
+      <c r="E68" s="62">
         <v>0.62152777777777779</v>
       </c>
-      <c r="F68" s="67" t="s">
+      <c r="F68" s="54" t="s">
         <v>248</v>
       </c>
-      <c r="G68" s="68">
+      <c r="G68" s="62">
         <v>0.52083333333333337</v>
       </c>
       <c r="H68" s="16" t="s">
@@ -16462,25 +16438,25 @@
       </c>
     </row>
     <row r="69" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A69" s="64" t="s">
+      <c r="A69" s="52" t="s">
         <v>161</v>
       </c>
-      <c r="B69" s="64" t="s">
+      <c r="B69" s="52" t="s">
         <v>162</v>
       </c>
-      <c r="C69" s="64" t="s">
+      <c r="C69" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="D69" s="65">
-        <v>43601</v>
-      </c>
-      <c r="E69" s="66">
+      <c r="D69" s="53">
+        <v>43601</v>
+      </c>
+      <c r="E69" s="62">
         <v>0.62152777777777779</v>
       </c>
-      <c r="F69" s="67" t="s">
+      <c r="F69" s="54" t="s">
         <v>248</v>
       </c>
-      <c r="G69" s="68">
+      <c r="G69" s="62">
         <v>0.52083333333333337</v>
       </c>
       <c r="H69" s="16" t="s">
@@ -16488,25 +16464,25 @@
       </c>
     </row>
     <row r="70" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A70" s="64" t="s">
+      <c r="A70" s="52" t="s">
         <v>170</v>
       </c>
-      <c r="B70" s="64" t="s">
+      <c r="B70" s="52" t="s">
         <v>171</v>
       </c>
-      <c r="C70" s="64" t="s">
+      <c r="C70" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="D70" s="65">
-        <v>43601</v>
-      </c>
-      <c r="E70" s="66">
+      <c r="D70" s="53">
+        <v>43601</v>
+      </c>
+      <c r="E70" s="62">
         <v>0.62152777777777779</v>
       </c>
-      <c r="F70" s="67" t="s">
+      <c r="F70" s="54" t="s">
         <v>248</v>
       </c>
-      <c r="G70" s="68">
+      <c r="G70" s="62">
         <v>0.52083333333333337</v>
       </c>
       <c r="H70" s="16" t="s">
@@ -16514,25 +16490,25 @@
       </c>
     </row>
     <row r="71" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A71" s="64" t="s">
+      <c r="A71" s="52" t="s">
         <v>175</v>
       </c>
-      <c r="B71" s="64" t="s">
+      <c r="B71" s="52" t="s">
         <v>189</v>
       </c>
-      <c r="C71" s="64" t="s">
+      <c r="C71" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="D71" s="65">
-        <v>43601</v>
-      </c>
-      <c r="E71" s="66">
+      <c r="D71" s="53">
+        <v>43601</v>
+      </c>
+      <c r="E71" s="62">
         <v>0.62152777777777779</v>
       </c>
-      <c r="F71" s="67" t="s">
+      <c r="F71" s="54" t="s">
         <v>248</v>
       </c>
-      <c r="G71" s="68">
+      <c r="G71" s="62">
         <v>0.52083333333333337</v>
       </c>
       <c r="H71" s="16" t="s">
@@ -16540,25 +16516,25 @@
       </c>
     </row>
     <row r="72" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A72" s="64" t="s">
+      <c r="A72" s="52" t="s">
         <v>175</v>
       </c>
-      <c r="B72" s="64" t="s">
+      <c r="B72" s="52" t="s">
         <v>190</v>
       </c>
-      <c r="C72" s="64" t="s">
+      <c r="C72" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="D72" s="65">
-        <v>43601</v>
-      </c>
-      <c r="E72" s="66">
+      <c r="D72" s="53">
+        <v>43601</v>
+      </c>
+      <c r="E72" s="62">
         <v>0.62152777777777779</v>
       </c>
-      <c r="F72" s="67" t="s">
+      <c r="F72" s="54" t="s">
         <v>248</v>
       </c>
-      <c r="G72" s="68">
+      <c r="G72" s="62">
         <v>0.52083333333333337</v>
       </c>
       <c r="H72" s="16" t="s">
@@ -16566,25 +16542,25 @@
       </c>
     </row>
     <row r="73" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A73" s="64" t="s">
+      <c r="A73" s="52" t="s">
         <v>175</v>
       </c>
-      <c r="B73" s="64" t="s">
+      <c r="B73" s="52" t="s">
         <v>193</v>
       </c>
-      <c r="C73" s="64" t="s">
+      <c r="C73" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="D73" s="65">
-        <v>43601</v>
-      </c>
-      <c r="E73" s="66">
+      <c r="D73" s="53">
+        <v>43601</v>
+      </c>
+      <c r="E73" s="62">
         <v>0.62152777777777779</v>
       </c>
-      <c r="F73" s="67" t="s">
+      <c r="F73" s="54" t="s">
         <v>248</v>
       </c>
-      <c r="G73" s="68">
+      <c r="G73" s="62">
         <v>0.52083333333333337</v>
       </c>
       <c r="H73" s="16" t="s">
@@ -16592,25 +16568,25 @@
       </c>
     </row>
     <row r="74" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A74" s="64" t="s">
+      <c r="A74" s="52" t="s">
         <v>194</v>
       </c>
-      <c r="B74" s="64" t="s">
+      <c r="B74" s="52" t="s">
         <v>196</v>
       </c>
-      <c r="C74" s="64" t="s">
+      <c r="C74" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="D74" s="65">
-        <v>43601</v>
-      </c>
-      <c r="E74" s="66">
+      <c r="D74" s="53">
+        <v>43601</v>
+      </c>
+      <c r="E74" s="62">
         <v>0.62152777777777779</v>
       </c>
-      <c r="F74" s="67" t="s">
+      <c r="F74" s="54" t="s">
         <v>248</v>
       </c>
-      <c r="G74" s="68">
+      <c r="G74" s="62">
         <v>0.52083333333333337</v>
       </c>
       <c r="H74" s="16" t="s">
@@ -16618,25 +16594,25 @@
       </c>
     </row>
     <row r="75" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A75" s="64" t="s">
+      <c r="A75" s="52" t="s">
         <v>134</v>
       </c>
-      <c r="B75" s="64" t="s">
+      <c r="B75" s="52" t="s">
         <v>135</v>
       </c>
-      <c r="C75" s="64" t="s">
+      <c r="C75" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="D75" s="65">
-        <v>43601</v>
-      </c>
-      <c r="E75" s="66">
+      <c r="D75" s="53">
+        <v>43601</v>
+      </c>
+      <c r="E75" s="62">
         <v>0.62152777777777779</v>
       </c>
-      <c r="F75" s="67" t="s">
+      <c r="F75" s="54" t="s">
         <v>249</v>
       </c>
-      <c r="G75" s="68">
+      <c r="G75" s="62">
         <v>0.52083333333333337</v>
       </c>
       <c r="H75" s="16" t="s">
@@ -16644,25 +16620,25 @@
       </c>
     </row>
     <row r="76" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A76" s="64" t="s">
+      <c r="A76" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="B76" s="64" t="s">
+      <c r="B76" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="C76" s="64" t="s">
+      <c r="C76" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="D76" s="65">
-        <v>43601</v>
-      </c>
-      <c r="E76" s="66">
+      <c r="D76" s="53">
+        <v>43601</v>
+      </c>
+      <c r="E76" s="62">
         <v>0.625</v>
       </c>
-      <c r="F76" s="67" t="s">
+      <c r="F76" s="54" t="s">
         <v>250</v>
       </c>
-      <c r="G76" s="68">
+      <c r="G76" s="62">
         <v>0.52083333333333337</v>
       </c>
       <c r="H76" s="16" t="s">
@@ -16670,25 +16646,25 @@
       </c>
     </row>
     <row r="77" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A77" s="64" t="s">
+      <c r="A77" s="52" t="s">
         <v>167</v>
       </c>
-      <c r="B77" s="64" t="s">
+      <c r="B77" s="52" t="s">
         <v>168</v>
       </c>
-      <c r="C77" s="64" t="s">
+      <c r="C77" s="52" t="s">
         <v>169</v>
       </c>
-      <c r="D77" s="65">
-        <v>43601</v>
-      </c>
-      <c r="E77" s="66">
+      <c r="D77" s="53">
+        <v>43601</v>
+      </c>
+      <c r="E77" s="62">
         <v>0.625</v>
       </c>
-      <c r="F77" s="67" t="s">
+      <c r="F77" s="54" t="s">
         <v>251</v>
       </c>
-      <c r="G77" s="68">
+      <c r="G77" s="62">
         <v>0.52083333333333337</v>
       </c>
       <c r="H77" s="16" t="s">
@@ -16696,25 +16672,25 @@
       </c>
     </row>
     <row r="78" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A78" s="64" t="s">
+      <c r="A78" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="B78" s="64" t="s">
+      <c r="B78" s="52" t="s">
         <v>90</v>
       </c>
-      <c r="C78" s="64" t="s">
+      <c r="C78" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="D78" s="65">
-        <v>43601</v>
-      </c>
-      <c r="E78" s="66">
+      <c r="D78" s="53">
+        <v>43601</v>
+      </c>
+      <c r="E78" s="62">
         <v>0.62847222222222221</v>
       </c>
-      <c r="F78" s="67" t="s">
+      <c r="F78" s="54" t="s">
         <v>252</v>
       </c>
-      <c r="G78" s="68">
+      <c r="G78" s="62">
         <v>0.52083333333333337</v>
       </c>
       <c r="H78" s="16" t="s">
@@ -16722,25 +16698,25 @@
       </c>
     </row>
     <row r="79" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A79" s="64" t="s">
+      <c r="A79" s="52" t="s">
         <v>138</v>
       </c>
-      <c r="B79" s="64" t="s">
+      <c r="B79" s="52" t="s">
         <v>139</v>
       </c>
-      <c r="C79" s="64" t="s">
+      <c r="C79" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="D79" s="65">
-        <v>43601</v>
-      </c>
-      <c r="E79" s="66">
+      <c r="D79" s="53">
+        <v>43601</v>
+      </c>
+      <c r="E79" s="62">
         <v>0.62847222222222221</v>
       </c>
-      <c r="F79" s="67" t="s">
+      <c r="F79" s="54" t="s">
         <v>252</v>
       </c>
-      <c r="G79" s="68">
+      <c r="G79" s="62">
         <v>0.52083333333333337</v>
       </c>
       <c r="H79" s="16" t="s">
@@ -16748,25 +16724,25 @@
       </c>
     </row>
     <row r="80" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A80" s="64" t="s">
+      <c r="A80" s="52" t="s">
         <v>163</v>
       </c>
-      <c r="B80" s="64" t="s">
+      <c r="B80" s="52" t="s">
         <v>166</v>
       </c>
-      <c r="C80" s="64" t="s">
+      <c r="C80" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="D80" s="65">
-        <v>43601</v>
-      </c>
-      <c r="E80" s="66">
+      <c r="D80" s="53">
+        <v>43601</v>
+      </c>
+      <c r="E80" s="62">
         <v>0.64236111111111116</v>
       </c>
-      <c r="F80" s="67" t="s">
+      <c r="F80" s="54" t="s">
         <v>253</v>
       </c>
-      <c r="G80" s="68">
+      <c r="G80" s="62">
         <v>0.52083333333333337</v>
       </c>
       <c r="H80" s="16" t="s">
@@ -16783,16 +16759,18 @@
       <c r="C81" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D81" s="50">
-        <v>43601</v>
-      </c>
-      <c r="E81" s="26">
+      <c r="D81" s="44">
+        <v>43601</v>
+      </c>
+      <c r="E81" s="62">
         <v>0.68402777777777779</v>
       </c>
-      <c r="F81" s="51" t="s">
+      <c r="F81" s="45" t="s">
         <v>254</v>
       </c>
-      <c r="G81" s="9"/>
+      <c r="G81" s="62">
+        <v>0.20833333333333334</v>
+      </c>
       <c r="H81" s="16" t="s">
         <v>234</v>
       </c>
@@ -16807,16 +16785,18 @@
       <c r="C82" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D82" s="50">
-        <v>43601</v>
-      </c>
-      <c r="E82" s="26">
+      <c r="D82" s="44">
+        <v>43601</v>
+      </c>
+      <c r="E82" s="62">
         <v>0.69444444444444442</v>
       </c>
-      <c r="F82" s="51" t="s">
+      <c r="F82" s="45" t="s">
         <v>255</v>
       </c>
-      <c r="G82" s="9"/>
+      <c r="G82" s="62">
+        <v>0.20833333333333334</v>
+      </c>
       <c r="H82" s="16" t="s">
         <v>234</v>
       </c>
@@ -16831,16 +16811,18 @@
       <c r="C83" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D83" s="50">
-        <v>43601</v>
-      </c>
-      <c r="E83" s="26">
+      <c r="D83" s="44">
+        <v>43601</v>
+      </c>
+      <c r="E83" s="62">
         <v>0.69444444444444442</v>
       </c>
-      <c r="F83" s="51" t="s">
+      <c r="F83" s="45" t="s">
         <v>255</v>
       </c>
-      <c r="G83" s="9"/>
+      <c r="G83" s="62">
+        <v>0.20833333333333334</v>
+      </c>
       <c r="H83" s="16" t="s">
         <v>234</v>
       </c>
@@ -16855,16 +16837,18 @@
       <c r="C84" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="D84" s="50">
-        <v>43601</v>
-      </c>
-      <c r="E84" s="26">
+      <c r="D84" s="44">
+        <v>43601</v>
+      </c>
+      <c r="E84" s="62">
         <v>0.69444444444444442</v>
       </c>
-      <c r="F84" s="51" t="s">
+      <c r="F84" s="45" t="s">
         <v>255</v>
       </c>
-      <c r="G84" s="9"/>
+      <c r="G84" s="62">
+        <v>0.20833333333333334</v>
+      </c>
       <c r="H84" s="16" t="s">
         <v>234</v>
       </c>
@@ -16879,16 +16863,18 @@
       <c r="C85" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D85" s="50">
-        <v>43601</v>
-      </c>
-      <c r="E85" s="26">
+      <c r="D85" s="44">
+        <v>43601</v>
+      </c>
+      <c r="E85" s="62">
         <v>0.69444444444444442</v>
       </c>
-      <c r="F85" s="51" t="s">
+      <c r="F85" s="45" t="s">
         <v>255</v>
       </c>
-      <c r="G85" s="9"/>
+      <c r="G85" s="62">
+        <v>0.20833333333333334</v>
+      </c>
       <c r="H85" s="16" t="s">
         <v>234</v>
       </c>
@@ -16903,16 +16889,18 @@
       <c r="C86" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D86" s="50">
-        <v>43601</v>
-      </c>
-      <c r="E86" s="26">
+      <c r="D86" s="44">
+        <v>43601</v>
+      </c>
+      <c r="E86" s="62">
         <v>0.77083333333333337</v>
       </c>
-      <c r="F86" s="51" t="s">
+      <c r="F86" s="45" t="s">
         <v>256</v>
       </c>
-      <c r="G86" s="9"/>
+      <c r="G86" s="62">
+        <v>0.20833333333333334</v>
+      </c>
       <c r="H86" s="16" t="s">
         <v>234</v>
       </c>
@@ -16927,16 +16915,18 @@
       <c r="C87" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="D87" s="50">
-        <v>43601</v>
-      </c>
-      <c r="E87" s="26">
+      <c r="D87" s="44">
+        <v>43601</v>
+      </c>
+      <c r="E87" s="62">
         <v>0.83680555555555558</v>
       </c>
-      <c r="F87" s="51" t="s">
+      <c r="F87" s="45" t="s">
         <v>257</v>
       </c>
-      <c r="G87" s="9"/>
+      <c r="G87" s="62">
+        <v>0.20833333333333334</v>
+      </c>
       <c r="H87" s="16" t="s">
         <v>234</v>
       </c>
@@ -16951,16 +16941,18 @@
       <c r="C88" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="D88" s="50">
-        <v>43601</v>
-      </c>
-      <c r="E88" s="26">
+      <c r="D88" s="44">
+        <v>43601</v>
+      </c>
+      <c r="E88" s="62">
         <v>0.84027777777777779</v>
       </c>
-      <c r="F88" s="51" t="s">
+      <c r="F88" s="45" t="s">
         <v>258</v>
       </c>
-      <c r="G88" s="9"/>
+      <c r="G88" s="62">
+        <v>0.20833333333333334</v>
+      </c>
       <c r="H88" s="16" t="s">
         <v>234</v>
       </c>
@@ -16975,16 +16967,18 @@
       <c r="C89" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D89" s="50">
-        <v>43601</v>
-      </c>
-      <c r="E89" s="26">
+      <c r="D89" s="44">
+        <v>43601</v>
+      </c>
+      <c r="E89" s="62">
         <v>0.87847222222222221</v>
       </c>
-      <c r="F89" s="51" t="s">
+      <c r="F89" s="45" t="s">
         <v>259</v>
       </c>
-      <c r="G89" s="9"/>
+      <c r="G89" s="62">
+        <v>0.20833333333333334</v>
+      </c>
       <c r="H89" s="16" t="s">
         <v>234</v>
       </c>
@@ -16999,16 +16993,18 @@
       <c r="C90" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D90" s="50">
-        <v>43601</v>
-      </c>
-      <c r="E90" s="26">
+      <c r="D90" s="44">
+        <v>43601</v>
+      </c>
+      <c r="E90" s="62">
         <v>0.88888888888888884</v>
       </c>
-      <c r="F90" s="51" t="s">
+      <c r="F90" s="45" t="s">
         <v>259</v>
       </c>
-      <c r="G90" s="9"/>
+      <c r="G90" s="62">
+        <v>0.20833333333333334</v>
+      </c>
       <c r="H90" s="16" t="s">
         <v>234</v>
       </c>
@@ -17035,91 +17031,91 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="55" t="s">
         <v>295</v>
       </c>
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="55" t="s">
         <v>296</v>
       </c>
-      <c r="C2" s="69" t="s">
+      <c r="C2" s="55" t="s">
         <v>297</v>
       </c>
-      <c r="D2" s="69" t="s">
+      <c r="D2" s="55" t="s">
         <v>298</v>
       </c>
-      <c r="E2" s="69" t="s">
+      <c r="E2" s="55" t="s">
         <v>299</v>
       </c>
-      <c r="F2" s="69" t="s">
+      <c r="F2" s="55" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="70">
+      <c r="A3" s="56">
         <v>43577</v>
       </c>
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="59" t="s">
         <v>289</v>
       </c>
       <c r="C3">
         <v>50</v>
       </c>
-      <c r="D3" s="72">
+      <c r="D3" s="58">
         <v>150</v>
       </c>
-      <c r="E3" s="72">
+      <c r="E3" s="58">
         <f>D3*C3</f>
         <v>7500</v>
       </c>
-      <c r="F3" s="71" t="s">
+      <c r="F3" s="57" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="70">
+      <c r="A4" s="56">
         <v>43577</v>
       </c>
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="59" t="s">
         <v>290</v>
       </c>
       <c r="C4">
         <v>24</v>
       </c>
-      <c r="D4" s="72">
+      <c r="D4" s="58">
         <v>130</v>
       </c>
-      <c r="E4" s="72">
+      <c r="E4" s="58">
         <f>D4*C4</f>
         <v>3120</v>
       </c>
-      <c r="F4" s="71" t="s">
+      <c r="F4" s="57" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="70">
+      <c r="A5" s="56">
         <v>43577</v>
       </c>
-      <c r="B5" s="73" t="s">
+      <c r="B5" s="59" t="s">
         <v>292</v>
       </c>
-      <c r="C5" s="74">
+      <c r="C5" s="60">
         <f>C3*2+C4</f>
         <v>124</v>
       </c>
-      <c r="D5" s="72">
+      <c r="D5" s="58">
         <v>1.21</v>
       </c>
-      <c r="E5" s="72">
+      <c r="E5" s="58">
         <f>D5*C5</f>
         <v>150.04</v>
       </c>
-      <c r="F5" s="71" t="s">
+      <c r="F5" s="57" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="70">
+      <c r="A6" s="56">
         <v>43578</v>
       </c>
       <c r="B6" t="s">
@@ -17128,18 +17124,18 @@
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6" s="72">
+      <c r="D6" s="58">
         <v>228</v>
       </c>
-      <c r="E6" s="72">
+      <c r="E6" s="58">
         <v>228</v>
       </c>
-      <c r="F6" s="71" t="s">
+      <c r="F6" s="57" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="70">
+      <c r="A7" s="56">
         <v>43578</v>
       </c>
       <c r="B7" t="s">
@@ -17148,18 +17144,18 @@
       <c r="C7">
         <v>1</v>
       </c>
-      <c r="D7" s="72">
+      <c r="D7" s="58">
         <v>345</v>
       </c>
-      <c r="E7" s="72">
+      <c r="E7" s="58">
         <v>345</v>
       </c>
-      <c r="F7" s="71" t="s">
+      <c r="F7" s="57" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="70">
+      <c r="A8" s="56">
         <v>43578</v>
       </c>
       <c r="B8" t="s">
@@ -17168,39 +17164,39 @@
       <c r="C8">
         <v>40</v>
       </c>
-      <c r="D8" s="72">
+      <c r="D8" s="58">
         <v>1.5</v>
       </c>
-      <c r="E8" s="72">
+      <c r="E8" s="58">
         <v>60</v>
       </c>
-      <c r="F8" s="71" t="s">
+      <c r="F8" s="57" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="70">
+      <c r="A9" s="56">
         <v>43578</v>
       </c>
-      <c r="B9" s="71" t="s">
+      <c r="B9" s="57" t="s">
         <v>300</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
-      <c r="D9" s="72">
+      <c r="D9" s="58">
         <v>500</v>
       </c>
-      <c r="E9" s="72">
+      <c r="E9" s="58">
         <f>D9*C9</f>
         <v>1000</v>
       </c>
-      <c r="F9" s="71" t="s">
+      <c r="F9" s="57" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="70">
+      <c r="A10" s="56">
         <v>43578</v>
       </c>
       <c r="B10" t="s">
@@ -17209,39 +17205,39 @@
       <c r="C10">
         <v>34</v>
       </c>
-      <c r="D10" s="72">
+      <c r="D10" s="58">
         <v>46</v>
       </c>
-      <c r="E10" s="72">
+      <c r="E10" s="58">
         <v>1564</v>
       </c>
-      <c r="F10" s="71" t="s">
+      <c r="F10" s="57" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="70">
+      <c r="A11" s="56">
         <v>43578</v>
       </c>
-      <c r="B11" s="71" t="s">
+      <c r="B11" s="57" t="s">
         <v>293</v>
       </c>
       <c r="C11">
         <v>62</v>
       </c>
-      <c r="D11" s="72">
+      <c r="D11" s="58">
         <v>38</v>
       </c>
-      <c r="E11" s="72">
+      <c r="E11" s="58">
         <f>D11*C11</f>
         <v>2356</v>
       </c>
-      <c r="F11" s="71" t="s">
+      <c r="F11" s="57" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="70">
+      <c r="A12" s="56">
         <v>43579</v>
       </c>
       <c r="B12" t="s">
@@ -17250,18 +17246,18 @@
       <c r="C12">
         <v>102</v>
       </c>
-      <c r="D12" s="72">
+      <c r="D12" s="58">
         <v>3.5</v>
       </c>
-      <c r="E12" s="72">
+      <c r="E12" s="58">
         <v>357</v>
       </c>
-      <c r="F12" s="71" t="s">
+      <c r="F12" s="57" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="70">
+      <c r="A13" s="56">
         <v>43579</v>
       </c>
       <c r="B13" t="s">
@@ -17270,18 +17266,18 @@
       <c r="C13">
         <v>1</v>
       </c>
-      <c r="D13" s="72">
+      <c r="D13" s="58">
         <v>228</v>
       </c>
-      <c r="E13" s="72">
+      <c r="E13" s="58">
         <v>228</v>
       </c>
-      <c r="F13" s="71" t="s">
+      <c r="F13" s="57" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="70">
+      <c r="A14" s="56">
         <v>43579</v>
       </c>
       <c r="B14" t="s">
@@ -17290,18 +17286,18 @@
       <c r="C14">
         <v>1</v>
       </c>
-      <c r="D14" s="72">
+      <c r="D14" s="58">
         <v>228</v>
       </c>
-      <c r="E14" s="72">
+      <c r="E14" s="58">
         <v>228</v>
       </c>
-      <c r="F14" s="71" t="s">
+      <c r="F14" s="57" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="70">
+      <c r="A15" s="56">
         <v>43579</v>
       </c>
       <c r="B15" t="s">
@@ -17310,13 +17306,13 @@
       <c r="C15">
         <v>40</v>
       </c>
-      <c r="D15" s="72">
+      <c r="D15" s="58">
         <v>1.5</v>
       </c>
-      <c r="E15" s="72">
+      <c r="E15" s="58">
         <v>60</v>
       </c>
-      <c r="F15" s="71" t="s">
+      <c r="F15" s="57" t="s">
         <v>287</v>
       </c>
     </row>
@@ -17324,12 +17320,12 @@
       <c r="B16" t="s">
         <v>283</v>
       </c>
-      <c r="E16" s="72">
+      <c r="E16" s="58">
         <v>0</v>
       </c>
     </row>
     <row r="8754" spans="31:31" x14ac:dyDescent="0.2">
-      <c r="AE8754" s="71"/>
+      <c r="AE8754" s="57"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17350,91 +17346,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="55" t="s">
         <v>284</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="55" t="s">
         <v>285</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="55" t="s">
         <v>302</v>
       </c>
-      <c r="D1" s="69" t="s">
+      <c r="D1" s="55" t="s">
         <v>303</v>
       </c>
-      <c r="E1" s="69" t="s">
+      <c r="E1" s="55" t="s">
         <v>304</v>
       </c>
-      <c r="F1" s="69" t="s">
+      <c r="F1" s="55" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="70">
+      <c r="A2" s="56">
         <v>43577</v>
       </c>
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="59" t="s">
         <v>289</v>
       </c>
       <c r="C2">
         <v>50</v>
       </c>
-      <c r="D2" s="72">
+      <c r="D2" s="58">
         <v>150</v>
       </c>
-      <c r="E2" s="72">
+      <c r="E2" s="58">
         <f>D2*C2</f>
         <v>7500</v>
       </c>
-      <c r="F2" s="71" t="s">
+      <c r="F2" s="57" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="70">
+      <c r="A3" s="56">
         <v>43577</v>
       </c>
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="59" t="s">
         <v>290</v>
       </c>
       <c r="C3">
         <v>24</v>
       </c>
-      <c r="D3" s="72">
+      <c r="D3" s="58">
         <v>130</v>
       </c>
-      <c r="E3" s="72">
+      <c r="E3" s="58">
         <f>D3*C3</f>
         <v>3120</v>
       </c>
-      <c r="F3" s="71" t="s">
+      <c r="F3" s="57" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="70">
+      <c r="A4" s="56">
         <v>43577</v>
       </c>
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="59" t="s">
         <v>292</v>
       </c>
-      <c r="C4" s="74">
+      <c r="C4" s="60">
         <f>C2*2+C3</f>
         <v>124</v>
       </c>
-      <c r="D4" s="72">
+      <c r="D4" s="58">
         <v>1.21</v>
       </c>
-      <c r="E4" s="72">
+      <c r="E4" s="58">
         <f>D4*C4</f>
         <v>150.04</v>
       </c>
-      <c r="F4" s="71" t="s">
+      <c r="F4" s="57" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="70">
+      <c r="A5" s="56">
         <v>43578</v>
       </c>
       <c r="B5" t="s">
@@ -17443,18 +17439,18 @@
       <c r="C5">
         <v>1</v>
       </c>
-      <c r="D5" s="72">
+      <c r="D5" s="58">
         <v>228</v>
       </c>
-      <c r="E5" s="72">
+      <c r="E5" s="58">
         <v>228</v>
       </c>
-      <c r="F5" s="71" t="s">
+      <c r="F5" s="57" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="70">
+      <c r="A6" s="56">
         <v>43578</v>
       </c>
       <c r="B6" t="s">
@@ -17463,18 +17459,18 @@
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6" s="72">
+      <c r="D6" s="58">
         <v>345</v>
       </c>
-      <c r="E6" s="72">
+      <c r="E6" s="58">
         <v>345</v>
       </c>
-      <c r="F6" s="71" t="s">
+      <c r="F6" s="57" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="70">
+      <c r="A7" s="56">
         <v>43578</v>
       </c>
       <c r="B7" t="s">
@@ -17483,18 +17479,18 @@
       <c r="C7">
         <v>40</v>
       </c>
-      <c r="D7" s="72">
+      <c r="D7" s="58">
         <v>1.5</v>
       </c>
-      <c r="E7" s="72">
+      <c r="E7" s="58">
         <v>60</v>
       </c>
-      <c r="F7" s="71" t="s">
+      <c r="F7" s="57" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="70">
+      <c r="A8" s="56">
         <v>43578</v>
       </c>
       <c r="B8" t="s">
@@ -17503,39 +17499,39 @@
       <c r="C8">
         <v>34</v>
       </c>
-      <c r="D8" s="72">
+      <c r="D8" s="58">
         <v>46</v>
       </c>
-      <c r="E8" s="72">
+      <c r="E8" s="58">
         <v>1564</v>
       </c>
-      <c r="F8" s="71" t="s">
+      <c r="F8" s="57" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="70">
+      <c r="A9" s="56">
         <v>43578</v>
       </c>
-      <c r="B9" s="71" t="s">
+      <c r="B9" s="57" t="s">
         <v>293</v>
       </c>
       <c r="C9">
         <v>62</v>
       </c>
-      <c r="D9" s="72">
+      <c r="D9" s="58">
         <v>38</v>
       </c>
-      <c r="E9" s="72">
+      <c r="E9" s="58">
         <f>D9*C9</f>
         <v>2356</v>
       </c>
-      <c r="F9" s="71" t="s">
+      <c r="F9" s="57" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="70">
+      <c r="A10" s="56">
         <v>43579</v>
       </c>
       <c r="B10" t="s">
@@ -17544,18 +17540,18 @@
       <c r="C10">
         <v>102</v>
       </c>
-      <c r="D10" s="72">
+      <c r="D10" s="58">
         <v>3.5</v>
       </c>
-      <c r="E10" s="72">
+      <c r="E10" s="58">
         <v>357</v>
       </c>
-      <c r="F10" s="71" t="s">
+      <c r="F10" s="57" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="70">
+      <c r="A11" s="56">
         <v>43579</v>
       </c>
       <c r="B11" t="s">
@@ -17564,18 +17560,18 @@
       <c r="C11">
         <v>1</v>
       </c>
-      <c r="D11" s="72">
+      <c r="D11" s="58">
         <v>228</v>
       </c>
-      <c r="E11" s="72">
+      <c r="E11" s="58">
         <v>228</v>
       </c>
-      <c r="F11" s="71" t="s">
+      <c r="F11" s="57" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="70">
+      <c r="A12" s="56">
         <v>43579</v>
       </c>
       <c r="B12" t="s">
@@ -17584,18 +17580,18 @@
       <c r="C12">
         <v>1</v>
       </c>
-      <c r="D12" s="72">
+      <c r="D12" s="58">
         <v>228</v>
       </c>
-      <c r="E12" s="72">
+      <c r="E12" s="58">
         <v>228</v>
       </c>
-      <c r="F12" s="71" t="s">
+      <c r="F12" s="57" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="70">
+      <c r="A13" s="56">
         <v>43579</v>
       </c>
       <c r="B13" t="s">
@@ -17604,13 +17600,13 @@
       <c r="C13">
         <v>40</v>
       </c>
-      <c r="D13" s="72">
+      <c r="D13" s="58">
         <v>1.5</v>
       </c>
-      <c r="E13" s="72">
+      <c r="E13" s="58">
         <v>60</v>
       </c>
-      <c r="F13" s="71" t="s">
+      <c r="F13" s="57" t="s">
         <v>287</v>
       </c>
     </row>
@@ -17618,7 +17614,7 @@
       <c r="B14" t="s">
         <v>283</v>
       </c>
-      <c r="E14" s="72">
+      <c r="E14" s="58">
         <v>0</v>
       </c>
     </row>
@@ -17631,7 +17627,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABD20D03-67BE-461C-AC79-1AD0C7C27F05}">
   <dimension ref="B4:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -17643,46 +17639,46 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B4" s="71" t="s">
+      <c r="B4" s="57" t="s">
         <v>307</v>
       </c>
-      <c r="C4" s="71" t="s">
+      <c r="C4" s="57" t="s">
         <v>308</v>
       </c>
-      <c r="D4" s="71" t="s">
+      <c r="D4" s="57" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B5" s="70">
+      <c r="B5" s="56">
         <v>43646</v>
       </c>
       <c r="C5">
         <v>3239.21</v>
       </c>
-      <c r="D5" s="71" t="s">
+      <c r="D5" s="57" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B6" s="70">
+      <c r="B6" s="56">
         <v>43738</v>
       </c>
       <c r="C6">
         <v>6478.42</v>
       </c>
-      <c r="D6" s="71" t="s">
+      <c r="D6" s="57" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B7" s="70">
+      <c r="B7" s="56">
         <v>43766</v>
       </c>
       <c r="C7">
         <v>6478.42</v>
       </c>
-      <c r="D7" s="71" t="s">
+      <c r="D7" s="57" t="s">
         <v>306</v>
       </c>
     </row>
